--- a/eventR.xlsx
+++ b/eventR.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomarrabajante/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F085B8C1-C79C-DA4F-95A8-030DD1B5AC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92E46D2-53D8-5841-B4C0-607F10388A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="940" windowWidth="23500" windowHeight="14420" activeTab="3" xr2:uid="{7147BF9B-A311-8C45-9FE5-E7966284B6B2}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="26540" windowHeight="14900" xr2:uid="{7147BF9B-A311-8C45-9FE5-E7966284B6B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="changing duration" sheetId="1" r:id="rId1"/>
-    <sheet name="changing number of interaction" sheetId="2" r:id="rId2"/>
-    <sheet name="changing crowd density" sheetId="3" r:id="rId3"/>
-    <sheet name="changing beta" sheetId="4" r:id="rId4"/>
+    <sheet name="Calculator" sheetId="6" r:id="rId1"/>
+    <sheet name="changing duration" sheetId="1" r:id="rId2"/>
+    <sheet name="changing number of interaction" sheetId="2" r:id="rId3"/>
+    <sheet name="changing crowd density" sheetId="3" r:id="rId4"/>
+    <sheet name="changing beta" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Dispersion</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>event R</t>
-  </si>
-  <si>
-    <t>Mean crowding density (0 to 1)</t>
   </si>
   <si>
     <t>Variance of crowding density</t>
@@ -61,15 +59,54 @@
   <si>
     <t>Average number of interactions with unique individuals per hour</t>
   </si>
+  <si>
+    <t xml:space="preserve">Source: https://medium.com/@tomaspueyo/coronavirus-how-to-do-testing-and-contact-tracing-bde85b64072e </t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Event duration or exposure time (in hours)</t>
+  </si>
+  <si>
+    <t>Variance of the crowding density (default value = 1)</t>
+  </si>
+  <si>
+    <t>Event R Calculator</t>
+  </si>
+  <si>
+    <t>Expected number of interactions with unique individuals per hour</t>
+  </si>
+  <si>
+    <t>Expected number of people in the event</t>
+  </si>
+  <si>
+    <t>Area of the event venue (in sq.m.)</t>
+  </si>
+  <si>
+    <t>Mean crowding density</t>
+  </si>
+  <si>
+    <t>(&gt;1 means number of attendees exceeds event venue capacity)</t>
+  </si>
+  <si>
+    <t>OUTPUT (Event R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the expected number of possible newly infected individuals who are infected by a COVID-19 positive case in a certain event or local setting. Event R&gt;1 means high infection risk. </t>
+  </si>
+  <si>
+    <t>Dispersion or heterogeneity factor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,8 +114,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +171,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -106,17 +216,279 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,6 +711,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Event duration or exposure time (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -699,6 +1126,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average number of interactions with unique individuals per hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1059,6 +1541,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean crowding density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1419,6 +1956,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmission probability (beta)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3800,6 +4392,172 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240321</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312286</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>201356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image for post">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40131163-96C5-DB45-A4AE-436F001A653B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6053013" y="3168162"/>
+          <a:ext cx="5884658" cy="3441810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6520C0-8059-6C42-B5BF-1633B455E479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="762000"/>
+          <a:ext cx="2127250" cy="1063625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>791550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7356B7D7-B552-1347-9BFB-0B7C7EB20667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11303000" y="777875"/>
+          <a:ext cx="1871050" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3839,7 +4597,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3882,7 +4640,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3925,7 +4683,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4264,11 +5022,464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69C12C7-B729-B14E-BADC-DE1BF71C56FF}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="3" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="23">
+        <v>4</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="35">
+        <v>10</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="P9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+    </row>
+    <row r="10" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="23">
+        <v>25</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="14">
+        <f>B10/(B13/4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="23">
+        <v>200</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="I31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="N33" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+    </row>
+    <row r="34" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <f>((B7*B4)*N34)*(1-EXP(-B16/N34))</f>
+        <v>6.5935990792872134</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="N34" s="50">
+        <f>IF(P10=I10,1,IF(OR(I10^2/(P10-I10)&gt;1,I10^2/(P10-I10)&lt;0),1,I10^2/(P10-I10)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="51"/>
+      <c r="P34" s="52"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="I10:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B16:G31"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G36"/>
+    <mergeCell ref="H33:L36"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N33:P33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61398BD-878C-4741-9EE3-8D1C67EEDC9E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4286,19 +5497,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -4603,12 +5814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631D1B17-CA1D-4A4D-8830-587151D9CD48}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4626,19 +5837,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -4943,12 +6154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92D1E73-D0B5-3C40-A1F2-77B9D2BA5BED}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4966,19 +6177,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -5283,12 +6494,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE631CA-4E08-CA4E-AE15-440661A8F04B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5306,19 +6517,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>

--- a/eventR.xlsx
+++ b/eventR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomarrabajante/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92E46D2-53D8-5841-B4C0-607F10388A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDE2F8-1626-F946-9A9A-E306B79F287A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="26540" windowHeight="14900" xr2:uid="{7147BF9B-A311-8C45-9FE5-E7966284B6B2}"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="23620" windowHeight="14900" xr2:uid="{7147BF9B-A311-8C45-9FE5-E7966284B6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>Dispersion</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Dispersion or heterogeneity factor</t>
+  </si>
+  <si>
+    <t>Wearing of face masks, frequent hand washing, presence of engineering controls, etc.</t>
+  </si>
+  <si>
+    <t>Reduction in beta (Effect of interventions)</t>
+  </si>
+  <si>
+    <t>Values should be 0 to 1, where values near 1 mean very effective interventions.</t>
+  </si>
+  <si>
+    <t>With environmental transmission? (0 for No, 1 for Yes)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -348,8 +360,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +382,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,16 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,11 +486,8 @@
     <xf numFmtId="2" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,10 +498,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4396,8 +4411,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>240321</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>51777</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -4418,7 +4433,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -4426,15 +4441,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="8781"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6053013" y="3168162"/>
-          <a:ext cx="5884658" cy="3441810"/>
+          <a:off x="6059230" y="3532909"/>
+          <a:ext cx="5890874" cy="3180083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5023,431 +5036,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69C12C7-B729-B14E-BADC-DE1BF71C56FF}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="23">
+      <c r="A4" s="11"/>
+      <c r="B4" s="27">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8">
         <v>10</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="P9" s="54" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="P9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="23">
+      <c r="A10" s="11"/>
+      <c r="B10" s="27">
         <v>25</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="14">
+      <c r="I10" s="17">
         <f>B10/(B13/4)</f>
         <v>0.5</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="P10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="13"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="P10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="23">
+      <c r="A13" s="11"/>
+      <c r="B13" s="27">
         <v>200</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="26">
+      <c r="A16" s="11"/>
+      <c r="B16" s="30">
         <v>0.2</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
       <c r="I31" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="27">
+        <v>1</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="8" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="N33" s="49" t="s">
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="N39" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-    </row>
-    <row r="34" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
-        <f>((B7*B4)*N34)*(1-EXP(-B16/N34))</f>
-        <v>6.5935990792872134</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="N34" s="50">
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+    </row>
+    <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41">
+        <f>((B7*B4)*N40)*(1-EXP(-IF(B16+B37*0.05&gt;1,1,B16+B37*0.05)*(1-B34)/N40))</f>
+        <v>5.9062382056257317</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="N40" s="51">
         <f>IF(P10=I10,1,IF(OR(I10^2/(P10-I10)&gt;1,I10^2/(P10-I10)&lt;0),1,I10^2/(P10-I10)))</f>
         <v>0.5</v>
       </c>
-      <c r="O34" s="51"/>
-      <c r="P34" s="52"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="53"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+    </row>
+    <row r="42" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="26">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G42"/>
+    <mergeCell ref="H39:L42"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A3:A37"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A3:A31"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="P9:S9"/>
@@ -5462,12 +5541,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="I9:N9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G36"/>
-    <mergeCell ref="H33:L36"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N33:P33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
